--- a/python_src/nist_confusion/confusion_matrix_dropped_0.0.xlsx
+++ b/python_src/nist_confusion/confusion_matrix_dropped_0.0.xlsx
@@ -990,13 +990,13 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9795918367346939</v>
+        <v>0.979591836734694</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8275862068965517</v>
+        <v>0.8275862068965518</v>
       </c>
       <c r="K14" t="n">
-        <v>0.883435582822086</v>
+        <v>0.8834355828220859</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0.8181818181818182</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8807339449541285</v>
+        <v>0.8807339449541284</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2216,7 +2216,7 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>0.8228571428571428</v>
+        <v>0.8228571428571427</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -2225,10 +2225,10 @@
         <v>0.96</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8275862068965517</v>
+        <v>0.8275862068965518</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8861538461538462</v>
+        <v>0.8861538461538463</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8275862068965517</v>
+        <v>0.8275862068965518</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8275862068965517</v>
+        <v>0.8275862068965518</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9056603773584906</v>
+        <v>0.9056603773584905</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -3454,13 +3454,13 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8275862068965517</v>
+        <v>0.8275862068965518</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8275862068965517</v>
+        <v>0.8275862068965518</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9056603773584906</v>
+        <v>0.9056603773584905</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
